--- a/group/07_web_visitor/ユースケース駆動開発_分析設計書_試験用テンプレート.xlsx
+++ b/group/07_web_visitor/ユースケース駆動開発_分析設計書_試験用テンプレート.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo01/Desktop/develop/ohara_uml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y_imamura\Desktop\ohara_uml\group\07_web_visitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDD269-EB70-0749-96AE-0BC246902CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE3611-F2BC-4C79-B7A8-2CF2538656AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="14" r:id="rId1"/>
     <sheet name="機能要求" sheetId="13" r:id="rId2"/>
     <sheet name="システム構成図" sheetId="12" r:id="rId3"/>
-    <sheet name="ドメインモデル" sheetId="1" r:id="rId4"/>
-    <sheet name="ユースケースモデル" sheetId="2" r:id="rId5"/>
-    <sheet name="ユースケース記述（UC_）" sheetId="3" r:id="rId6"/>
-    <sheet name="ロバストネス図（UC_）" sheetId="4" r:id="rId7"/>
-    <sheet name="シーケンス図（UC_）" sheetId="11" r:id="rId8"/>
-    <sheet name="クラス図（No.○✕）" sheetId="6" r:id="rId9"/>
-    <sheet name="画面遷移図（UC_）" sheetId="7" r:id="rId10"/>
+    <sheet name="ユースケースモデル" sheetId="2" r:id="rId4"/>
+    <sheet name="ユースケース記述（ログイン）" sheetId="19" r:id="rId5"/>
+    <sheet name="ユースケース記述(ログアウト)" sheetId="18" r:id="rId6"/>
+    <sheet name="ユースケース記述 (登録) " sheetId="17" r:id="rId7"/>
+    <sheet name="ユースケース記述(参照) " sheetId="16" r:id="rId8"/>
+    <sheet name="ユースケース記述 (変更)" sheetId="15" r:id="rId9"/>
+    <sheet name="ユースケース記述（UC_）" sheetId="3" r:id="rId10"/>
+    <sheet name="ロバストネス図(ログイン)" sheetId="27" r:id="rId11"/>
+    <sheet name="ロバストネス図(ログアウト)" sheetId="26" r:id="rId12"/>
+    <sheet name="ロバストネス図(登録)" sheetId="25" r:id="rId13"/>
+    <sheet name="ロバストネス図(参照)" sheetId="24" r:id="rId14"/>
+    <sheet name="ロバストネス図（変更）" sheetId="28" r:id="rId15"/>
+    <sheet name="ロバストネス図（UC_）" sheetId="4" r:id="rId16"/>
+    <sheet name="シーケンス図(ログイン)" sheetId="23" r:id="rId17"/>
+    <sheet name="シーケンス図(ログアウト)" sheetId="22" r:id="rId18"/>
+    <sheet name="シーケンス図(登録)" sheetId="21" r:id="rId19"/>
+    <sheet name="シーケンス図(参照)" sheetId="20" r:id="rId20"/>
+    <sheet name="シーケンス図（UC_）" sheetId="11" r:id="rId21"/>
+    <sheet name="ドメインモデル" sheetId="1" r:id="rId22"/>
+    <sheet name="クラス図（No.○✕）" sheetId="6" r:id="rId23"/>
+    <sheet name="画面遷移図（UC_）" sheetId="7" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,20 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
-  <si>
-    <t>要求分析／企画書</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>キカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="70">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -136,19 +137,6 @@
   </si>
   <si>
     <t>アクター</t>
-  </si>
-  <si>
-    <t>要求分析／ユースケース記述</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユースケース名</t>
@@ -280,12 +268,218 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Web訪問者システム</t>
+  </si>
+  <si>
+    <t>Web訪問者システム</t>
+    <rPh sb="3" eb="6">
+      <t>ホウモンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訪問者システム</t>
+  </si>
+  <si>
+    <t>ユーザー</t>
+  </si>
+  <si>
+    <t>森本</t>
+  </si>
+  <si>
+    <t>メニュー画面が表示されている</t>
+  </si>
+  <si>
+    <t>要求分析／ユースケースモデル</t>
+  </si>
+  <si>
+    <t>訪問者システム（登録情報変更）</t>
+  </si>
+  <si>
+    <t>登録情報変更</t>
+  </si>
+  <si>
+    <t>要求分析／ユースケース記述</t>
+  </si>
+  <si>
+    <t>登録した情報を変更する</t>
+  </si>
+  <si>
+    <t>訪問者情報登録</t>
+  </si>
+  <si>
+    <t>変更後の結果画面が表示されている</t>
+  </si>
+  <si>
+    <t>特に無し</t>
+  </si>
+  <si>
+    <t>訪問者情報を登録する</t>
+  </si>
+  <si>
+    <t>メニュー画面を表示</t>
+  </si>
+  <si>
+    <t>平林</t>
+  </si>
+  <si>
+    <t>boleanは真か偽かを問うもの</t>
+  </si>
+  <si>
+    <t>voidは引数や戻り値がなく結果だけを返すもの</t>
+  </si>
+  <si>
+    <t>訪問者の参照</t>
+    <rPh sb="0" eb="3">
+      <t>ホウモンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の訪問者の情報を参照できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訪問者システムにログインできている</t>
+    <rPh sb="0" eb="3">
+      <t>ホウモンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の訪問者の情報が参照できている</t>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訪問者情報登録完了画面が表示されている</t>
+  </si>
+  <si>
+    <t>訪問者</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>訪問者がシステムにログイン</t>
+  </si>
+  <si>
+    <t>ログイン画面が表示されている</t>
+  </si>
+  <si>
+    <t>ログイン完了画面が表示されている</t>
+  </si>
+  <si>
+    <t>1.訪問者は、Web訪問者システムログイン画面にユーザID、パスワードを入力する
+2.システムは、ユーザID、パスワードが訪問者登録情報と一致するか確認する
+  →一致しない場合代替フロー3へ
+3.一致した場合にシステムは訪問者の入力した情報をもとにログインする
+4.システムは、ログイン完了画面を表示する</t>
+  </si>
+  <si>
+    <t>3.一致しない場合はログイン画面に「ログインに失敗しました」と表示
+  →基本フロー1へ</t>
+  </si>
+  <si>
+    <t>1.訪問者は、Web訪問者システムログイン画面の「登録」を選択する
+2.システムは「訪問者登録画面」を表示する
+3.訪問者は「訪問者登録画面」にユーザID、パスワード、名前、学校名、所属名、メールアドレス、電話番号、年齢を入力する
+4.訪問者情報が正しいか確認する画面を表示する→正しくない場合代替フローへ
+5.情報が正しければシステムは訪問者の入力した情報を登録する
+6.システムは、訪問者情報登録完了画面を表示する</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>ユーザーがシステムからログアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ログインする
+2. システムは、ログイン後の画面を表示する。（自分の情報など）
+3. ユーザは、見たい他の訪問者をクリックする。
+4. システムは、選択された訪問者の情報を表示する。
+5. 6. </t>
+  </si>
+  <si>
+    <t>ログアウト完了画面が表示される</t>
+  </si>
+  <si>
+    <t>5.訪問者情報が正しくない場合訪問者は「戻る」を選択する
+6.訪問者は正しい情報を入力する
+7.基本フロー4へ</t>
+  </si>
+  <si>
+    <t>ユーザーは、訪問者システムの「ログアウト」を選択する。
+システムは、ログアウト処理を実行する。
+システムは、ログイン前の訪問者メニュー画面を表示する。</t>
+  </si>
+  <si>
+    <t>他ユーザー情報の閲覧</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今村弥麻人</t>
+    <rPh sb="0" eb="5">
+      <t>イマムラヤアサヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト画面が表示されている</t>
+  </si>
+  <si>
+    <t>1. ユーザーは、訪問者システムメニューの「訪問者情報の変更」を選択する
+2. システムは、現在の訪問者情報を取得する
+3. システムは、「訪問者情報の変更画面」を表示する
+4. ユーザーは、「訪問者情報の変更画面」に新しい情報を入力する
+5. システムは、新しい訪問者情報を登録する
+6. システムは、新しい訪問者情報の変更結果画面を表示する</t>
+  </si>
+  <si>
+    <t>詳細／シーケンス図</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web訪問システム</t>
+    <rPh sb="3" eb="5">
+      <t>ホウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤大雅</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,24 +1292,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,6 +1312,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1143,10 +1334,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,19 +1358,43 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,30 +1406,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,30 +1442,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1348,6 +1524,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,27 +1689,174 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>597242</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8212263-567B-CF62-2857-10AC75EF0D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="1136650"/>
+          <a:ext cx="6655142" cy="3676839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53021F85-09B1-E35B-3B0D-2A1F961DBBD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="800100"/>
+          <a:ext cx="7515225" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2065C9B6-308F-9E09-9C06-F0CA88BCE87D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="1143000"/>
+          <a:ext cx="2286000" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>41375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:colOff>28675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCB7CAE-A1E5-024F-AD8B-82725629E517}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC07759-493D-7047-BF9C-3407267F878A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698500" y="749300"/>
+          <a:off x="685800" y="1219200"/>
           <a:ext cx="8093175" cy="4406900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1565,6 +1906,129 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCB7CAE-A1E5-024F-AD8B-82725629E517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="1009650"/>
+          <a:ext cx="2743199" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>試験時提出不要</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105D354E-8D4E-211B-8FB5-0E525BD7442F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5DCB7CAE-A1E5-024F-AD8B-82725629E517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="9366"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="4057650" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1647,74 +2111,296 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC07759-493D-7047-BF9C-3407267F878A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107C8027-3D7A-6257-AFF6-EB93905F6AE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1219200"/>
-          <a:ext cx="8093175" cy="4406900"/>
+          <a:off x="762000" y="762000"/>
+          <a:ext cx="3429000" cy="3924300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
-            <a:t>試験時は提出不要</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9652FD-9F39-B30D-5BB8-447FC5971219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="1123950"/>
+          <a:ext cx="8963025" cy="4438650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3157FC04-18D3-5F5A-F223-5FDFBE720FDD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2880D733-4973-47F2-485F-935E0B35E00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1200150"/>
+          <a:ext cx="4572000" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF65BA7-ACD8-B348-2A36-79AF079A796C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="981075"/>
+          <a:ext cx="6515100" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489223</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44AA2FC-A240-0C7C-37E9-512BFD1BA751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="1231900"/>
+          <a:ext cx="5321573" cy="3968954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2AB161-376F-96B8-BD8A-58E11D523DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1057275"/>
+          <a:ext cx="6753225" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1988,45 +2674,45 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
       <c r="E1" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -2038,7 +2724,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2057,642 +2743,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="122" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="65"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="67"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
-    <row r="4" spans="1:15" ht="27">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="27">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="27">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="27">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="27">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="27">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="27">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="27">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="27">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="27">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="27">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="27">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="27">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:13" ht="27">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:13" ht="27">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="2:13" ht="27">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2703,252 +2753,258 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="65"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="67"/>
-    </row>
-    <row r="5" spans="1:15" ht="20" thickTop="1" thickBot="1"/>
-    <row r="6" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B6" s="80" t="s">
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
-    </row>
-    <row r="7" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B7" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" thickBot="1">
-      <c r="B8" s="45" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1">
-      <c r="B9" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-    </row>
-    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B10" s="45" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="1:15" ht="21" thickBot="1">
-      <c r="B11" s="45" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-    </row>
-    <row r="12" spans="1:15" ht="21" thickBot="1">
-      <c r="B12" s="45" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-    </row>
-    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1">
-      <c r="B13" s="45" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1">
-      <c r="B14" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B15" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
-    </row>
-    <row r="16" spans="1:15" ht="19" thickTop="1"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="B6:C6"/>
@@ -2987,8 +3043,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6826C2C2-3385-4D9D-90E1-D20395C8B83C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2998,105 +3054,658 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="65"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267CAF7C-C606-4C07-AD53-05BEBD6F9820}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FDD9C3-BCE1-49CC-9698-EE771E974BA5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE14BF4D-3799-4619-9738-8C0919348BC0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <f ca="1">TODAY()</f>
+        <v>45918</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813C8B07-06F2-4682-AE62-C24F870335DE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="67"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -3116,8 +3725,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3127,105 +3736,105 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="65"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="67"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -3245,51 +3854,447 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC20F5-1CF3-46E5-9528-45A6FBAC37DC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
       <c r="E1" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
       <c r="J1" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
       <c r="M1" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146C0BE-EFAB-4D10-A756-70BEA3B4BCC9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB30341-F3AD-4DC8-9209-13A3749F9699}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -3298,11 +4303,237 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="38"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -3316,31 +4547,2239 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73351760-66D7-4134-BC6E-A8F3AAC2A629}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <f ca="1">TODAY()</f>
+        <v>45918</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="32">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="32">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED6FA67-1532-4432-AE2E-17A4F0E364C9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE9FDBD-C79D-4D21-AD81-C2BC9BED56B0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5D55AF-5337-4114-AE81-31676EC61D66}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="91">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="55"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:15" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B98FBF-EE44-4B59-9E66-1090BAB98C49}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="32">
+        <f ca="1">TODAY()</f>
+        <v>45918</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" spans="1:15" ht="134" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:M12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC2656A-C196-4702-A666-232A4DED9A70}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="32">
+        <v>45917</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:15" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="00b68e39924f37ea7b1a5acaf8857e0e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1760b117eeeff4f4de69ce8d4b9089c6" ns2:_="" ns3:_="">
-    <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <xsd:import namespace="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008AC1ACA19E75DE40A2955B34AFBB6978" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="69cbccb7fabf50dbc58bd5fdcca8f1ed">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="599eecd9-2310-4b0b-9e92-9d18ba11b74d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1f146cd4af57b25026e4320206c0a7b" ns3:_="">
+    <xsd:import namespace="599eecd9-2310-4b0b-9e92-9d18ba11b74d"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3348,7 +6787,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="599eecd9-2310-4b0b-9e92-9d18ba11b74d" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3376,49 +6815,32 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c7b788f1-635f-435b-a825-11a9aec0b64e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="04574505-c322-4981-8ebb-5d25af8d4de8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6a13cc97-cabb-4803-aebc-8ff13f4c6438}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="04574505-c322-4981-8ebb-5d25af8d4de8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -3532,22 +6954,49 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_activity xmlns="599eecd9-2310-4b0b-9e92-9d18ba11b74d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A751DC5-F95E-46D4-AE54-08C8CEF11ED7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EE6A28-0459-4C2B-925B-876BA8E1BBE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="599eecd9-2310-4b0b-9e92-9d18ba11b74d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C6F0FCF-3624-4DDB-A171-8F40C8BCB351}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C6F0FCF-3624-4DDB-A171-8F40C8BCB351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072AC1A6-4679-477C-AACD-93A3EE4A7F07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072AC1A6-4679-477C-AACD-93A3EE4A7F07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="599eecd9-2310-4b0b-9e92-9d18ba11b74d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>